--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.7967480515768504</v>
+        <v>0.8612186940460373</v>
       </c>
       <c r="D2">
-        <v>0.9902603970201653</v>
+        <v>0.9925493497395685</v>
       </c>
       <c r="E2">
-        <v>0.8037232252968951</v>
+        <v>0.7920058109888606</v>
       </c>
       <c r="F2">
-        <v>0.9745489870792123</v>
+        <v>0.9738881191490687</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7967480515768504</v>
+        <v>0.8612186940460373</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7392605340467706</v>
+        <v>0.7515266661884532</v>
       </c>
       <c r="E3">
-        <v>0.644292104624641</v>
+        <v>0.707065613347565</v>
       </c>
       <c r="F3">
-        <v>0.8215441635795315</v>
+        <v>0.8590567467227268</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9902603970201653</v>
+        <v>0.9925493497395685</v>
       </c>
       <c r="C4">
-        <v>0.7392605340467706</v>
+        <v>0.7515266661884532</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7571021837543477</v>
+        <v>0.7838537058857651</v>
       </c>
       <c r="F4">
-        <v>0.9700321597997008</v>
+        <v>0.9769650480470065</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.8037232252968951</v>
+        <v>0.7920058109888606</v>
       </c>
       <c r="C5">
-        <v>0.644292104624641</v>
+        <v>0.707065613347565</v>
       </c>
       <c r="D5">
-        <v>0.7571021837543477</v>
+        <v>0.7838537058857651</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.7804247112823257</v>
+        <v>0.8007318003495649</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9745489870792123</v>
+        <v>0.9738881191490687</v>
       </c>
       <c r="C6">
-        <v>0.8215441635795315</v>
+        <v>0.8590567467227268</v>
       </c>
       <c r="D6">
-        <v>0.9700321597997008</v>
+        <v>0.9769650480470065</v>
       </c>
       <c r="E6">
-        <v>0.7804247112823257</v>
+        <v>0.8007318003495649</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.2577013843376678</v>
+        <v>0.1780703071381367</v>
       </c>
       <c r="D2">
-        <v>-0.01221345900768826</v>
+        <v>-0.009506263065901771</v>
       </c>
       <c r="E2">
-        <v>-0.2486692395444016</v>
+        <v>-0.2687978693654273</v>
       </c>
       <c r="F2">
-        <v>0.03192019797861922</v>
+        <v>0.03332214120984043</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.2577013843376678</v>
+        <v>-0.1780703071381367</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.3330257804360109</v>
+        <v>-0.3229221721493704</v>
       </c>
       <c r="E3">
-        <v>-0.4619985700531377</v>
+        <v>-0.3835609956233201</v>
       </c>
       <c r="F3">
-        <v>-0.225683098105995</v>
+        <v>-0.1808766411807107</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.01221345900768826</v>
+        <v>0.009506263065901771</v>
       </c>
       <c r="C4">
-        <v>0.3330257804360109</v>
+        <v>0.3229221721493704</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.3094652909323224</v>
+        <v>-0.2796253561128079</v>
       </c>
       <c r="F4">
-        <v>0.03758759315190785</v>
+        <v>0.02939428867276965</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2486692395444016</v>
+        <v>0.2687978693654273</v>
       </c>
       <c r="C5">
-        <v>0.4619985700531377</v>
+        <v>0.3835609956233201</v>
       </c>
       <c r="D5">
-        <v>0.3094652909323224</v>
+        <v>0.2796253561128079</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2789224594232033</v>
+        <v>0.2572452254893996</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03192019797861922</v>
+        <v>-0.03332214120984043</v>
       </c>
       <c r="C6">
-        <v>0.225683098105995</v>
+        <v>0.1808766411807107</v>
       </c>
       <c r="D6">
-        <v>-0.03758759315190785</v>
+        <v>-0.02939428867276965</v>
       </c>
       <c r="E6">
-        <v>-0.2789224594232033</v>
+        <v>-0.2572452254893996</v>
       </c>
       <c r="F6">
         <v>0</v>

--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_completo_AV-MCPS_No_Lineal_Estacionario_SETAR.xlsx
@@ -549,16 +549,16 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>0.8612186940460373</v>
+        <v>0.2644531793809126</v>
       </c>
       <c r="D2">
-        <v>0.9925493497395685</v>
+        <v>0.0303273296145814</v>
       </c>
       <c r="E2">
-        <v>0.7920058109888606</v>
+        <v>0.5900698878948689</v>
       </c>
       <c r="F2">
-        <v>0.9738881191490687</v>
+        <v>0.8799016209203196</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -566,19 +566,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.8612186940460373</v>
+        <v>0.2644531793809126</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.7515266661884532</v>
+        <v>0.5888952905302269</v>
       </c>
       <c r="E3">
-        <v>0.707065613347565</v>
+        <v>0.4598220546951928</v>
       </c>
       <c r="F3">
-        <v>0.8590567467227268</v>
+        <v>0.3957917792697376</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -586,19 +586,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.9925493497395685</v>
+        <v>0.0303273296145814</v>
       </c>
       <c r="C4">
-        <v>0.7515266661884532</v>
+        <v>0.5888952905302269</v>
       </c>
       <c r="D4">
         <v>1</v>
       </c>
       <c r="E4">
-        <v>0.7838537058857651</v>
+        <v>0.1941683425055645</v>
       </c>
       <c r="F4">
-        <v>0.9769650480470065</v>
+        <v>0.1460262361617763</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -606,19 +606,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.7920058109888606</v>
+        <v>0.5900698878948689</v>
       </c>
       <c r="C5">
-        <v>0.707065613347565</v>
+        <v>0.4598220546951928</v>
       </c>
       <c r="D5">
-        <v>0.7838537058857651</v>
+        <v>0.1941683425055645</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>0.8007318003495649</v>
+        <v>0.6753148040919497</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -626,16 +626,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.9738881191490687</v>
+        <v>0.8799016209203196</v>
       </c>
       <c r="C6">
-        <v>0.8590567467227268</v>
+        <v>0.3957917792697376</v>
       </c>
       <c r="D6">
-        <v>0.9769650480470065</v>
+        <v>0.1460262361617763</v>
       </c>
       <c r="E6">
-        <v>0.8007318003495649</v>
+        <v>0.6753148040919497</v>
       </c>
       <c r="F6">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1780703071381367</v>
+        <v>-1.145148195214821</v>
       </c>
       <c r="D2">
-        <v>-0.009506263065901771</v>
+        <v>-2.31504265157696</v>
       </c>
       <c r="E2">
-        <v>-0.2687978693654273</v>
+        <v>-0.5467259334916835</v>
       </c>
       <c r="F2">
-        <v>0.03332214120984043</v>
+        <v>-0.1528605104437205</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -696,19 +696,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>-0.1780703071381367</v>
+        <v>1.145148195214821</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>-0.3229221721493704</v>
+        <v>-0.5484657220673034</v>
       </c>
       <c r="E3">
-        <v>-0.3835609956233201</v>
+        <v>0.7523385473999045</v>
       </c>
       <c r="F3">
-        <v>-0.1808766411807107</v>
+        <v>0.86608334200042</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -716,19 +716,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.009506263065901771</v>
+        <v>2.31504265157696</v>
       </c>
       <c r="C4">
-        <v>0.3229221721493704</v>
+        <v>0.5484657220673034</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>-0.2796253561128079</v>
+        <v>1.339231877761032</v>
       </c>
       <c r="F4">
-        <v>0.02939428867276965</v>
+        <v>1.507040178826016</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -736,19 +736,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.2687978693654273</v>
+        <v>0.5467259334916835</v>
       </c>
       <c r="C5">
-        <v>0.3835609956233201</v>
+        <v>-0.7523385473999045</v>
       </c>
       <c r="D5">
-        <v>0.2796253561128079</v>
+        <v>-1.339231877761032</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>0.2572452254893996</v>
+        <v>0.4245124709697277</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -756,16 +756,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>-0.03332214120984043</v>
+        <v>0.1528605104437205</v>
       </c>
       <c r="C6">
-        <v>0.1808766411807107</v>
+        <v>-0.86608334200042</v>
       </c>
       <c r="D6">
-        <v>-0.02939428867276965</v>
+        <v>-1.507040178826016</v>
       </c>
       <c r="E6">
-        <v>-0.2572452254893996</v>
+        <v>-0.4245124709697277</v>
       </c>
       <c r="F6">
         <v>0</v>
